--- a/March'21/29.03.2021/Hello Daffodils Balance Transfer March'2021.xlsx
+++ b/March'21/29.03.2021/Hello Daffodils Balance Transfer March'2021.xlsx
@@ -1301,8 +1301,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
